--- a/base de dados e códigos/comparacao_algoritmos_machine_learning_com_odds.xlsx
+++ b/base de dados e códigos/comparacao_algoritmos_machine_learning_com_odds.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\André\Documents\Eng. Computação\2020.1\TCC\base de dados e códigos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBEDDF4D-580B-4B8C-9411-7EF6436AE42F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260C7CD7-FB32-42E8-A7EE-2327705C42DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -659,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6:I35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,13 +752,19 @@
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+      <c r="B6" s="4">
+        <v>0.55149442314395203</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.53829295921924003</v>
+      </c>
       <c r="D6" s="4">
         <v>0.63478999651446499</v>
       </c>
       <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="F6" s="4">
+        <v>0.56744945974206995</v>
+      </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5">
         <v>0.63337835482746596</v>
@@ -766,13 +772,13 @@
       <c r="I6" s="5">
         <v>0.59581300104566004</v>
       </c>
-      <c r="K6" s="6" t="e">
+      <c r="K6" s="6">
         <f t="shared" ref="K6:K35" si="0">_xlfn.RANK.AVG(B6,B6:I6)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L6" s="6" t="e">
+        <v>5</v>
+      </c>
+      <c r="L6" s="6">
         <f t="shared" ref="L6:L35" si="1">_xlfn.RANK.AVG(C6,B6:I6)</f>
-        <v>#N/A</v>
+        <v>6</v>
       </c>
       <c r="M6" s="6">
         <f>_xlfn.RANK.AVG(D6,B6:I6)</f>
@@ -782,9 +788,9 @@
         <f t="shared" ref="N6:N35" si="2">_xlfn.RANK.AVG(E6,B6:I6)</f>
         <v>#N/A</v>
       </c>
-      <c r="O6" s="6" t="e">
+      <c r="O6" s="6">
         <f t="shared" ref="O6:O35" si="3">_xlfn.RANK.AVG(F6,B6:I6)</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="P6" s="6" t="e">
         <f t="shared" ref="P6:P35" si="4">_xlfn.RANK.AVG(G6,B6:I6)</f>
@@ -803,13 +809,19 @@
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+      <c r="B7" s="4">
+        <v>0.552823283373997</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.546893516904844</v>
+      </c>
       <c r="D7" s="4">
         <v>0.638667654234925</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="F7" s="4">
+        <v>0.55547664691530096</v>
+      </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5">
         <v>0.62949198326943101</v>
@@ -817,13 +829,13 @@
       <c r="I7" s="5">
         <v>0.57727431160683096</v>
       </c>
-      <c r="K7" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L7" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
+      <c r="K7" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L7" s="6">
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="M7" s="6">
         <f t="shared" ref="M7:M35" si="7">_xlfn.RANK.AVG(D7,B7:I7)</f>
@@ -833,9 +845,9 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="O7" s="6" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
+      <c r="O7" s="6">
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="P7" s="6" t="e">
         <f t="shared" si="4"/>
@@ -854,13 +866,19 @@
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="B8" s="4">
+        <v>0.55221767166260005</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.51186824677588005</v>
+      </c>
       <c r="D8" s="4">
         <v>0.64071540606483102</v>
       </c>
       <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="F8" s="4">
+        <v>0.55212181944928496</v>
+      </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5">
         <v>0.62946148483792197</v>
@@ -868,13 +886,13 @@
       <c r="I8" s="5">
         <v>0.56272655977692498</v>
       </c>
-      <c r="K8" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L8" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
+      <c r="K8" s="6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L8" s="6">
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="M8" s="6">
         <f t="shared" si="7"/>
@@ -884,9 +902,9 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="O8" s="6" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
+      <c r="O8" s="6">
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="P8" s="6" t="e">
         <f t="shared" si="4"/>
@@ -905,13 +923,19 @@
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="B9" s="4">
+        <v>0.55813872429417899</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.53291216451725298</v>
+      </c>
       <c r="D9" s="4">
         <v>0.62940920181247795</v>
       </c>
       <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="F9" s="4">
+        <v>0.55419135587312596</v>
+      </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5">
         <v>0.63074241896131</v>
@@ -919,13 +943,13 @@
       <c r="I9" s="5">
         <v>0.58848902056465602</v>
       </c>
-      <c r="K9" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L9" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
+      <c r="K9" s="6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L9" s="6">
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="M9" s="6">
         <f t="shared" si="7"/>
@@ -935,9 +959,9 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="O9" s="6" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
+      <c r="O9" s="6">
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="P9" s="6" t="e">
         <f t="shared" si="4"/>
@@ -956,13 +980,19 @@
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
+      <c r="B10" s="4">
+        <v>0.55020041826420296</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.54557337051237298</v>
+      </c>
       <c r="D10" s="4">
         <v>0.63205385151620697</v>
       </c>
       <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="F10" s="4">
+        <v>0.55945887068665001</v>
+      </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5">
         <v>0.63138724294179105</v>
@@ -970,13 +1000,13 @@
       <c r="I10" s="5">
         <v>0.58983530846984999</v>
       </c>
-      <c r="K10" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L10" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
+      <c r="K10" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L10" s="6">
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="M10" s="6">
         <f t="shared" si="7"/>
@@ -986,9 +1016,9 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="O10" s="6" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
+      <c r="O10" s="6">
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="P10" s="6" t="e">
         <f t="shared" si="4"/>
@@ -1007,13 +1037,19 @@
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
+      <c r="B11" s="4">
+        <v>0.56074851864761199</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.52310038340885301</v>
+      </c>
       <c r="D11" s="4">
         <v>0.63998780062739602</v>
       </c>
       <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+      <c r="F11" s="4">
+        <v>0.55544179156500495</v>
+      </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5">
         <v>0.61949285465318904</v>
@@ -1021,13 +1057,13 @@
       <c r="I11" s="5">
         <v>0.59312042523527297</v>
       </c>
-      <c r="K11" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L11" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
+      <c r="K11" s="6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L11" s="6">
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="M11" s="6">
         <f t="shared" si="7"/>
@@ -1037,9 +1073,9 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="O11" s="6" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
+      <c r="O11" s="6">
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="P11" s="6" t="e">
         <f t="shared" si="4"/>
@@ -1058,13 +1094,19 @@
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
+      <c r="B12" s="4">
+        <v>0.53302980132450295</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.52971418612757004</v>
+      </c>
       <c r="D12" s="4">
         <v>0.64466713140467002</v>
       </c>
       <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+      <c r="F12" s="4">
+        <v>0.56010805158591803</v>
+      </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5">
         <v>0.63086005576855997</v>
@@ -1072,13 +1114,13 @@
       <c r="I12" s="5">
         <v>0.58190571627744803</v>
       </c>
-      <c r="K12" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L12" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
+      <c r="K12" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L12" s="6">
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="M12" s="6">
         <f t="shared" si="7"/>
@@ -1088,9 +1130,9 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="O12" s="6" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
+      <c r="O12" s="6">
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="P12" s="6" t="e">
         <f t="shared" si="4"/>
@@ -1109,13 +1151,19 @@
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
+      <c r="B13" s="4">
+        <v>0.55282764029278497</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.520473161380271</v>
+      </c>
       <c r="D13" s="4">
         <v>0.64535116765423495</v>
       </c>
       <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="F13" s="4">
+        <v>0.56471767166260001</v>
+      </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5">
         <v>0.63475949808295495</v>
@@ -1123,13 +1171,13 @@
       <c r="I13" s="5">
         <v>0.58654583478563904</v>
       </c>
-      <c r="K13" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L13" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
+      <c r="K13" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L13" s="6">
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="M13" s="6">
         <f t="shared" si="7"/>
@@ -1139,9 +1187,9 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="O13" s="6" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
+      <c r="O13" s="6">
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="P13" s="6" t="e">
         <f t="shared" si="4"/>
@@ -1160,13 +1208,19 @@
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
+      <c r="B14" s="4">
+        <v>0.53112147089578199</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.52971854304635702</v>
+      </c>
       <c r="D14" s="4">
         <v>0.64465841756709596</v>
       </c>
       <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
+      <c r="F14" s="4">
+        <v>0.55087138375740596</v>
+      </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5">
         <v>0.62749215754618304</v>
@@ -1174,13 +1228,13 @@
       <c r="I14" s="5">
         <v>0.58255489717671605</v>
       </c>
-      <c r="K14" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L14" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
+      <c r="K14" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L14" s="6">
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="M14" s="6">
         <f t="shared" si="7"/>
@@ -1190,9 +1244,9 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="O14" s="6" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
+      <c r="O14" s="6">
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="P14" s="6" t="e">
         <f t="shared" si="4"/>
@@ -1211,13 +1265,19 @@
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
+      <c r="B15" s="4">
+        <v>0.54819623562216802</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.55152927849424804</v>
+      </c>
       <c r="D15" s="4">
         <v>0.63670704078075901</v>
       </c>
       <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+      <c r="F15" s="4">
+        <v>0.55810386894388198</v>
+      </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5">
         <v>0.61957999302892897</v>
@@ -1225,13 +1285,13 @@
       <c r="I15" s="5">
         <v>0.576633844545137</v>
       </c>
-      <c r="K15" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L15" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
+      <c r="K15" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L15" s="6">
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="M15" s="6">
         <f t="shared" si="7"/>
@@ -1241,9 +1301,9 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="O15" s="6" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
+      <c r="O15" s="6">
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="P15" s="6" t="e">
         <f t="shared" si="4"/>
@@ -1262,13 +1322,19 @@
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
+      <c r="B16" s="4">
+        <v>0.55748954339491097</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.52514377831997205</v>
+      </c>
       <c r="D16" s="4">
         <v>0.65450505402579195</v>
       </c>
       <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
+      <c r="F16" s="4">
+        <v>0.55813872429417899</v>
+      </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5">
         <v>0.61297054722899902</v>
@@ -1276,13 +1342,13 @@
       <c r="I16" s="5">
         <v>0.58847594980829498</v>
       </c>
-      <c r="K16" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L16" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
+      <c r="K16" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L16" s="6">
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="M16" s="6">
         <f t="shared" si="7"/>
@@ -1292,9 +1358,9 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="O16" s="6" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
+      <c r="O16" s="6">
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="P16" s="6" t="e">
         <f t="shared" si="4"/>
@@ -1313,13 +1379,19 @@
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
+      <c r="B17" s="4">
+        <v>0.54420529801324502</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.54020564656674797</v>
+      </c>
       <c r="D17" s="4">
         <v>0.641334088532589</v>
       </c>
       <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+      <c r="F17" s="4">
+        <v>0.56141948414081499</v>
+      </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5">
         <v>0.62550975949808296</v>
@@ -1327,13 +1399,13 @@
       <c r="I17" s="5">
         <v>0.58123039386545805</v>
       </c>
-      <c r="K17" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L17" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
+      <c r="K17" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L17" s="6">
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="M17" s="6">
         <f t="shared" si="7"/>
@@ -1343,9 +1415,9 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="O17" s="6" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
+      <c r="O17" s="6">
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="P17" s="6" t="e">
         <f t="shared" si="4"/>
@@ -1364,13 +1436,19 @@
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
+      <c r="B18" s="4">
+        <v>0.55089752527012803</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0.552897350993377</v>
+      </c>
       <c r="D18" s="4">
         <v>0.63408853258975195</v>
       </c>
       <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
+      <c r="F18" s="4">
+        <v>0.55555942837225503</v>
+      </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5">
         <v>0.62483443708609199</v>
@@ -1378,13 +1456,13 @@
       <c r="I18" s="5">
         <v>0.60896218194492802</v>
       </c>
-      <c r="K18" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L18" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
+      <c r="K18" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L18" s="6">
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="M18" s="6">
         <f t="shared" si="7"/>
@@ -1394,9 +1472,9 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="O18" s="6" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
+      <c r="O18" s="6">
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="P18" s="6" t="e">
         <f t="shared" si="4"/>
@@ -1415,13 +1493,19 @@
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
+      <c r="B19" s="4">
+        <v>0.55223509933774795</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0.53032851167654205</v>
+      </c>
       <c r="D19" s="4">
         <v>0.63934297664691497</v>
       </c>
       <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
+      <c r="F19" s="4">
+        <v>0.56012547926106604</v>
+      </c>
       <c r="G19" s="5"/>
       <c r="H19" s="5">
         <v>0.62748344370860898</v>
@@ -1429,13 +1513,13 @@
       <c r="I19" s="5">
         <v>0.59378267689090203</v>
       </c>
-      <c r="K19" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L19" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
+      <c r="K19" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L19" s="6">
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="M19" s="6">
         <f t="shared" si="7"/>
@@ -1445,9 +1529,9 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="O19" s="6" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
+      <c r="O19" s="6">
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="P19" s="6" t="e">
         <f t="shared" si="4"/>
@@ -1466,13 +1550,19 @@
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
+      <c r="B20" s="4">
+        <v>0.55221331474381297</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.54758191007319601</v>
+      </c>
       <c r="D20" s="4">
         <v>0.64132973161380202</v>
       </c>
       <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
+      <c r="F20" s="4">
+        <v>0.56209916347159194</v>
+      </c>
       <c r="G20" s="5"/>
       <c r="H20" s="5">
         <v>0.62889508539560801</v>
@@ -1480,13 +1570,13 @@
       <c r="I20" s="5">
         <v>0.58984402230742405</v>
       </c>
-      <c r="K20" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L20" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
+      <c r="K20" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L20" s="6">
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="M20" s="6">
         <f t="shared" si="7"/>
@@ -1496,9 +1586,9 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="O20" s="6" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
+      <c r="O20" s="6">
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="P20" s="6" t="e">
         <f t="shared" si="4"/>
@@ -1517,13 +1607,19 @@
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
+      <c r="B21" s="4">
+        <v>0.53758278145695304</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0.53567009410944499</v>
+      </c>
       <c r="D21" s="4">
         <v>0.64856221680027804</v>
       </c>
       <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
+      <c r="F21" s="4">
+        <v>0.56478738236319204</v>
+      </c>
       <c r="G21" s="5"/>
       <c r="H21" s="5">
         <v>0.62354914604391698</v>
@@ -1531,13 +1627,13 @@
       <c r="I21" s="5">
         <v>0.58783548274660102</v>
       </c>
-      <c r="K21" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L21" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
+      <c r="K21" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L21" s="6">
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="M21" s="6">
         <f t="shared" si="7"/>
@@ -1547,9 +1643,9 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="O21" s="6" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
+      <c r="O21" s="6">
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="P21" s="6" t="e">
         <f t="shared" si="4"/>
@@ -1568,13 +1664,19 @@
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
+      <c r="B22" s="4">
+        <v>0.54358225862669896</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0.55353346113628399</v>
+      </c>
       <c r="D22" s="4">
         <v>0.63273353084698503</v>
       </c>
       <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
+      <c r="F22" s="4">
+        <v>0.56671749738584798</v>
+      </c>
       <c r="G22" s="5"/>
       <c r="H22" s="5">
         <v>0.62417654234925002</v>
@@ -1582,13 +1684,13 @@
       <c r="I22" s="5">
         <v>0.589909376089229</v>
       </c>
-      <c r="K22" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L22" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
+      <c r="K22" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L22" s="6">
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="M22" s="6">
         <f t="shared" si="7"/>
@@ -1598,9 +1700,9 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="O22" s="6" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
+      <c r="O22" s="6">
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="P22" s="6" t="e">
         <f t="shared" si="4"/>
@@ -1619,13 +1721,19 @@
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
+      <c r="B23" s="4">
+        <v>0.55478389682816298</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0.53499477169745502</v>
+      </c>
       <c r="D23" s="4">
         <v>0.64199634018821805</v>
       </c>
       <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
+      <c r="F23" s="4">
+        <v>0.55417828511676503</v>
+      </c>
       <c r="G23" s="5"/>
       <c r="H23" s="5">
         <v>0.630668351341931</v>
@@ -1633,13 +1741,13 @@
       <c r="I23" s="5">
         <v>0.58055071453468099</v>
       </c>
-      <c r="K23" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L23" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
+      <c r="K23" s="6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L23" s="6">
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="M23" s="6">
         <f t="shared" si="7"/>
@@ -1649,9 +1757,9 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="O23" s="6" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
+      <c r="O23" s="6">
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="P23" s="6" t="e">
         <f t="shared" si="4"/>
@@ -1670,13 +1778,19 @@
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
+      <c r="B24" s="4">
+        <v>0.54823980481003798</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0.55210003485534997</v>
+      </c>
       <c r="D24" s="4">
         <v>0.64072411990240496</v>
       </c>
       <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
+      <c r="F24" s="4">
+        <v>0.55939351690484496</v>
+      </c>
       <c r="G24" s="5"/>
       <c r="H24" s="5">
         <v>0.62285203903799202</v>
@@ -1684,13 +1798,13 @@
       <c r="I24" s="5">
         <v>0.58717323109097197</v>
       </c>
-      <c r="K24" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L24" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
+      <c r="K24" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L24" s="6">
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="M24" s="6">
         <f t="shared" si="7"/>
@@ -1700,9 +1814,9 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="O24" s="6" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
+      <c r="O24" s="6">
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="P24" s="6" t="e">
         <f t="shared" si="4"/>
@@ -1721,13 +1835,19 @@
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
+      <c r="B25" s="4">
+        <v>0.54237539212269004</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0.53037643778319898</v>
+      </c>
       <c r="D25" s="4">
         <v>0.63682467758800898</v>
       </c>
       <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
+      <c r="F25" s="4">
+        <v>0.54887591495294497</v>
+      </c>
       <c r="G25" s="5"/>
       <c r="H25" s="5">
         <v>0.62356657371906599</v>
@@ -1735,13 +1855,13 @@
       <c r="I25" s="5">
         <v>0.59180899268037601</v>
       </c>
-      <c r="K25" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L25" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
+      <c r="K25" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L25" s="6">
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="M25" s="6">
         <f t="shared" si="7"/>
@@ -1751,9 +1871,9 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="O25" s="6" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
+      <c r="O25" s="6">
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="P25" s="6" t="e">
         <f t="shared" si="4"/>
@@ -1772,13 +1892,19 @@
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
+      <c r="B26" s="4">
+        <v>0.54297228999651403</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0.54628790519344705</v>
+      </c>
       <c r="D26" s="4">
         <v>0.63805768560473997</v>
       </c>
       <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
+      <c r="F26" s="4">
+        <v>0.56145869640989898</v>
+      </c>
       <c r="G26" s="5"/>
       <c r="H26" s="5">
         <v>0.622856395956779</v>
@@ -1786,13 +1912,13 @@
       <c r="I26" s="5">
         <v>0.58986580690135904</v>
       </c>
-      <c r="K26" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L26" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
+      <c r="K26" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L26" s="6">
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="M26" s="6">
         <f t="shared" si="7"/>
@@ -1802,9 +1928,9 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="O26" s="6" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
+      <c r="O26" s="6">
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="P26" s="6" t="e">
         <f t="shared" si="4"/>
@@ -1823,13 +1949,19 @@
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
+      <c r="B27" s="4">
+        <v>0.55687957476472605</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0.52171924015336302</v>
+      </c>
       <c r="D27" s="4">
         <v>0.64925932380620399</v>
       </c>
       <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
+      <c r="F27" s="4">
+        <v>0.55152056465667398</v>
+      </c>
       <c r="G27" s="5"/>
       <c r="H27" s="5">
         <v>0.63608400139421395</v>
@@ -1837,13 +1969,13 @@
       <c r="I27" s="5">
         <v>0.59575200418264196</v>
       </c>
-      <c r="K27" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L27" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
+      <c r="K27" s="6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L27" s="6">
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="M27" s="6">
         <f t="shared" si="7"/>
@@ -1853,9 +1985,9 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="O27" s="6" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
+      <c r="O27" s="6">
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="P27" s="6" t="e">
         <f t="shared" si="4"/>
@@ -1874,13 +2006,19 @@
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
+      <c r="B28" s="4">
+        <v>0.55940658766120599</v>
+      </c>
+      <c r="C28" s="4">
+        <v>0.54556901359358601</v>
+      </c>
       <c r="D28" s="4">
         <v>0.642079121645172</v>
       </c>
       <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
+      <c r="F28" s="4">
+        <v>0.55883147438131697</v>
+      </c>
       <c r="G28" s="5"/>
       <c r="H28" s="5">
         <v>0.63145695364238397</v>
@@ -1888,13 +2026,13 @@
       <c r="I28" s="5">
         <v>0.57134454513767796</v>
       </c>
-      <c r="K28" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L28" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
+      <c r="K28" s="6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L28" s="6">
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="M28" s="6">
         <f t="shared" si="7"/>
@@ -1904,9 +2042,9 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="O28" s="6" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
+      <c r="O28" s="6">
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="P28" s="6" t="e">
         <f t="shared" si="4"/>
@@ -1925,13 +2063,19 @@
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
+      <c r="B29" s="4">
+        <v>0.53829295921924003</v>
+      </c>
+      <c r="C29" s="4">
+        <v>0.52711310561171099</v>
+      </c>
       <c r="D29" s="4">
         <v>0.63409288950853904</v>
       </c>
       <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
+      <c r="F29" s="4">
+        <v>0.55084524224468401</v>
+      </c>
       <c r="G29" s="5"/>
       <c r="H29" s="5">
         <v>0.62286946671314003</v>
@@ -1939,13 +2083,13 @@
       <c r="I29" s="5">
         <v>0.58977431160683103</v>
       </c>
-      <c r="K29" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L29" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
+      <c r="K29" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L29" s="6">
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="M29" s="6">
         <f t="shared" si="7"/>
@@ -1955,9 +2099,9 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="O29" s="6" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
+      <c r="O29" s="6">
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="P29" s="6" t="e">
         <f t="shared" si="4"/>
@@ -1976,13 +2120,19 @@
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
+      <c r="B30" s="4">
+        <v>0.54495904496340197</v>
+      </c>
+      <c r="C30" s="4">
+        <v>0.53368333914255806</v>
+      </c>
       <c r="D30" s="4">
         <v>0.63668089926803695</v>
       </c>
       <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
+      <c r="F30" s="4">
+        <v>0.56006448239804796</v>
+      </c>
       <c r="G30" s="5"/>
       <c r="H30" s="5">
         <v>0.63797490414778601</v>
@@ -1990,13 +2140,13 @@
       <c r="I30" s="5">
         <v>0.59178720808644103</v>
       </c>
-      <c r="K30" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L30" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
+      <c r="K30" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L30" s="6">
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="M30" s="6">
         <f t="shared" si="7"/>
@@ -2006,9 +2156,9 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="O30" s="6" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
+      <c r="O30" s="6">
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="P30" s="6" t="e">
         <f t="shared" si="4"/>
@@ -2027,13 +2177,19 @@
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
+      <c r="B31" s="4">
+        <v>0.56079644475426904</v>
+      </c>
+      <c r="C31" s="4">
+        <v>0.522486057859881</v>
+      </c>
       <c r="D31" s="4">
         <v>0.63146131056117105</v>
       </c>
       <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
+      <c r="F31" s="4">
+        <v>0.54959044963401804</v>
+      </c>
       <c r="G31" s="5"/>
       <c r="H31" s="5">
         <v>0.62215493203206695</v>
@@ -2041,13 +2197,13 @@
       <c r="I31" s="5">
         <v>0.585787730916695</v>
       </c>
-      <c r="K31" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L31" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
+      <c r="K31" s="6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L31" s="6">
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="M31" s="6">
         <f t="shared" si="7"/>
@@ -2057,9 +2213,9 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="O31" s="6" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
+      <c r="O31" s="6">
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="P31" s="6" t="e">
         <f t="shared" si="4"/>
@@ -2078,13 +2234,19 @@
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
+      <c r="B32" s="4">
+        <v>0.550156849076333</v>
+      </c>
+      <c r="C32" s="4">
+        <v>0.56013855001742696</v>
+      </c>
       <c r="D32" s="4">
         <v>0.64663210177762198</v>
       </c>
       <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
+      <c r="F32" s="4">
+        <v>0.55877919135587295</v>
+      </c>
       <c r="G32" s="5"/>
       <c r="H32" s="5">
         <v>0.62946148483792197</v>
@@ -2092,13 +2254,13 @@
       <c r="I32" s="5">
         <v>0.59053677239456204</v>
       </c>
-      <c r="K32" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L32" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
+      <c r="K32" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L32" s="6">
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="M32" s="6">
         <f t="shared" si="7"/>
@@ -2108,9 +2270,9 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="O32" s="6" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
+      <c r="O32" s="6">
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="P32" s="6" t="e">
         <f t="shared" si="4"/>
@@ -2129,13 +2291,19 @@
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
+      <c r="B33" s="4">
+        <v>0.53699459742070399</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0.53231090972464201</v>
+      </c>
       <c r="D33" s="4">
         <v>0.64402666434297595</v>
       </c>
       <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
+      <c r="F33" s="4">
+        <v>0.55614761240850397</v>
+      </c>
       <c r="G33" s="5"/>
       <c r="H33" s="5">
         <v>0.63215406064830904</v>
@@ -2143,13 +2311,13 @@
       <c r="I33" s="5">
         <v>0.58318229348204897</v>
       </c>
-      <c r="K33" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L33" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
+      <c r="K33" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L33" s="6">
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="M33" s="6">
         <f t="shared" si="7"/>
@@ -2159,9 +2327,9 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="O33" s="6" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
+      <c r="O33" s="6">
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="P33" s="6" t="e">
         <f t="shared" si="4"/>
@@ -2180,13 +2348,19 @@
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
+      <c r="B34" s="4">
+        <v>0.5475470547229</v>
+      </c>
+      <c r="C34" s="4">
+        <v>0.51251742767514796</v>
+      </c>
       <c r="D34" s="4">
         <v>0.64204862321366296</v>
       </c>
       <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
+      <c r="F34" s="4">
+        <v>0.54946409898919402</v>
+      </c>
       <c r="G34" s="5"/>
       <c r="H34" s="5">
         <v>0.633408853258975</v>
@@ -2194,13 +2368,13 @@
       <c r="I34" s="5">
         <v>0.58261153712094804</v>
       </c>
-      <c r="K34" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L34" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
+      <c r="K34" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L34" s="6">
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="M34" s="6">
         <f t="shared" si="7"/>
@@ -2210,9 +2384,9 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="O34" s="6" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
+      <c r="O34" s="6">
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="P34" s="6" t="e">
         <f t="shared" si="4"/>
@@ -2231,13 +2405,19 @@
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
+      <c r="B35" s="4">
+        <v>0.53757842453816596</v>
+      </c>
+      <c r="C35" s="4">
+        <v>0.55025270128964798</v>
+      </c>
       <c r="D35" s="4">
         <v>0.64669745555942804</v>
       </c>
       <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
+      <c r="F35" s="4">
+        <v>0.55614325548971699</v>
+      </c>
       <c r="G35" s="5"/>
       <c r="H35" s="5">
         <v>0.62749215754618304</v>
@@ -2245,13 +2425,13 @@
       <c r="I35" s="5">
         <v>0.58915562913907205</v>
       </c>
-      <c r="K35" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L35" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
+      <c r="K35" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L35" s="6">
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="M35" s="6">
         <f t="shared" si="7"/>
@@ -2261,9 +2441,9 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="O35" s="6" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
+      <c r="O35" s="6">
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="P35" s="6" t="e">
         <f t="shared" si="4"/>
@@ -2282,13 +2462,13 @@
       <c r="A36" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="8" t="e">
+      <c r="B36" s="8">
         <f t="shared" ref="B36:I36" si="8">AVERAGE(B6:B35)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C36" s="8" t="e">
+        <v>0.54833289764145432</v>
+      </c>
+      <c r="C36" s="8">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>0.53616620192866227</v>
       </c>
       <c r="D36" s="8">
         <f t="shared" si="8"/>
@@ -2298,9 +2478,9 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F36" s="8" t="e">
+      <c r="F36" s="8">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>0.55740269548042221</v>
       </c>
       <c r="G36" s="8" t="e">
         <f t="shared" si="8"/>
@@ -2314,13 +2494,13 @@
         <f t="shared" si="8"/>
         <v>0.58680899268037601</v>
       </c>
-      <c r="K36" s="9" t="e">
+      <c r="K36" s="9">
         <f t="shared" ref="K36:R36" si="9">AVERAGE(K6:K35)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L36" s="9" t="e">
+        <v>5</v>
+      </c>
+      <c r="L36" s="9">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
+        <v>5.7333333333333334</v>
       </c>
       <c r="M36" s="9">
         <f t="shared" si="9"/>
@@ -2330,9 +2510,9 @@
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="O36" s="9" t="e">
+      <c r="O36" s="9">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
+        <v>4.2666666666666666</v>
       </c>
       <c r="P36" s="9" t="e">
         <f t="shared" si="9"/>

--- a/base de dados e códigos/comparacao_algoritmos_machine_learning_com_odds.xlsx
+++ b/base de dados e códigos/comparacao_algoritmos_machine_learning_com_odds.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\André\Documents\Eng. Computação\2020.1\TCC\base de dados e códigos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260C7CD7-FB32-42E8-A7EE-2327705C42DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD3FC11-7A9C-438F-ABA7-44060CCA2090}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,9 +25,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -146,9 +143,6 @@
     <t>Árvore</t>
   </si>
   <si>
-    <t>Regras</t>
-  </si>
-  <si>
     <t>kNN</t>
   </si>
   <si>
@@ -165,6 +159,9 @@
   </si>
   <si>
     <t>Random Forest</t>
+  </si>
+  <si>
+    <t>ODDS</t>
   </si>
 </sst>
 </file>
@@ -247,7 +244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -274,6 +271,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -659,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,22 +708,22 @@
         <v>36</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="I5" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="2" t="s">
@@ -730,22 +733,22 @@
         <v>36</v>
       </c>
       <c r="M5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="O5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="P5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="Q5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="Q5" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="R5" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -761,7 +764,9 @@
       <c r="D6" s="4">
         <v>0.63478999651446499</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="12">
+        <v>0.55419135587312596</v>
+      </c>
       <c r="F6" s="4">
         <v>0.56744945974206995</v>
       </c>
@@ -774,19 +779,19 @@
       </c>
       <c r="K6" s="6">
         <f t="shared" ref="K6:K35" si="0">_xlfn.RANK.AVG(B6,B6:I6)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L6" s="6">
         <f t="shared" ref="L6:L35" si="1">_xlfn.RANK.AVG(C6,B6:I6)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M6" s="6">
         <f>_xlfn.RANK.AVG(D6,B6:I6)</f>
         <v>1</v>
       </c>
-      <c r="N6" s="6" t="e">
+      <c r="N6" s="6">
         <f t="shared" ref="N6:N35" si="2">_xlfn.RANK.AVG(E6,B6:I6)</f>
-        <v>#N/A</v>
+        <v>5</v>
       </c>
       <c r="O6" s="6">
         <f t="shared" ref="O6:O35" si="3">_xlfn.RANK.AVG(F6,B6:I6)</f>
@@ -818,7 +823,9 @@
       <c r="D7" s="4">
         <v>0.638667654234925</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="12">
+        <v>0.55415214360404297</v>
+      </c>
       <c r="F7" s="4">
         <v>0.55547664691530096</v>
       </c>
@@ -831,19 +838,19 @@
       </c>
       <c r="K7" s="6">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L7" s="6">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M7" s="6">
         <f t="shared" ref="M7:M35" si="7">_xlfn.RANK.AVG(D7,B7:I7)</f>
         <v>1</v>
       </c>
-      <c r="N7" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
+      <c r="N7" s="6">
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="O7" s="6">
         <f t="shared" si="3"/>
@@ -875,7 +882,9 @@
       <c r="D8" s="4">
         <v>0.64071540606483102</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="12">
+        <v>0.55404757755315404</v>
+      </c>
       <c r="F8" s="4">
         <v>0.55212181944928496</v>
       </c>
@@ -888,23 +897,23 @@
       </c>
       <c r="K8" s="6">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L8" s="6">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M8" s="6">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="N8" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
+      <c r="N8" s="6">
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="O8" s="6">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P8" s="6" t="e">
         <f t="shared" si="4"/>
@@ -932,7 +941,9 @@
       <c r="D9" s="4">
         <v>0.62940920181247795</v>
       </c>
-      <c r="E9" s="4"/>
+      <c r="E9" s="12">
+        <v>0.55420442662948699</v>
+      </c>
       <c r="F9" s="4">
         <v>0.55419135587312596</v>
       </c>
@@ -949,19 +960,19 @@
       </c>
       <c r="L9" s="6">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M9" s="6">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="N9" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
+      <c r="N9" s="6">
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="O9" s="6">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P9" s="6" t="e">
         <f t="shared" si="4"/>
@@ -989,7 +1000,9 @@
       <c r="D10" s="4">
         <v>0.63205385151620697</v>
       </c>
-      <c r="E10" s="4"/>
+      <c r="E10" s="12">
+        <v>0.55421314046706105</v>
+      </c>
       <c r="F10" s="4">
         <v>0.55945887068665001</v>
       </c>
@@ -1002,19 +1015,19 @@
       </c>
       <c r="K10" s="6">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L10" s="6">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M10" s="6">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="N10" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
+      <c r="N10" s="6">
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="O10" s="6">
         <f t="shared" si="3"/>
@@ -1046,7 +1059,9 @@
       <c r="D11" s="4">
         <v>0.63998780062739602</v>
       </c>
-      <c r="E11" s="4"/>
+      <c r="E11" s="12">
+        <v>0.55420878354827396</v>
+      </c>
       <c r="F11" s="4">
         <v>0.55544179156500495</v>
       </c>
@@ -1063,15 +1078,15 @@
       </c>
       <c r="L11" s="6">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M11" s="6">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="N11" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
+      <c r="N11" s="6">
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="O11" s="6">
         <f t="shared" si="3"/>
@@ -1103,7 +1118,9 @@
       <c r="D12" s="4">
         <v>0.64466713140467002</v>
       </c>
-      <c r="E12" s="4"/>
+      <c r="E12" s="12">
+        <v>0.55418264203555201</v>
+      </c>
       <c r="F12" s="4">
         <v>0.56010805158591803</v>
       </c>
@@ -1116,19 +1133,19 @@
       </c>
       <c r="K12" s="6">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L12" s="6">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M12" s="6">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="N12" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
+      <c r="N12" s="6">
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="O12" s="6">
         <f t="shared" si="3"/>
@@ -1160,7 +1177,9 @@
       <c r="D13" s="4">
         <v>0.64535116765423495</v>
       </c>
-      <c r="E13" s="4"/>
+      <c r="E13" s="12">
+        <v>0.55407371906587599</v>
+      </c>
       <c r="F13" s="4">
         <v>0.56471767166260001</v>
       </c>
@@ -1173,19 +1192,19 @@
       </c>
       <c r="K13" s="6">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L13" s="6">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M13" s="6">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="N13" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
+      <c r="N13" s="6">
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="O13" s="6">
         <f t="shared" si="3"/>
@@ -1217,7 +1236,9 @@
       <c r="D14" s="4">
         <v>0.64465841756709596</v>
       </c>
-      <c r="E14" s="4"/>
+      <c r="E14" s="12">
+        <v>0.55416957127919098</v>
+      </c>
       <c r="F14" s="4">
         <v>0.55087138375740596</v>
       </c>
@@ -1230,23 +1251,23 @@
       </c>
       <c r="K14" s="6">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L14" s="6">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M14" s="6">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="N14" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
+      <c r="N14" s="6">
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="O14" s="6">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P14" s="6" t="e">
         <f t="shared" si="4"/>
@@ -1274,7 +1295,9 @@
       <c r="D15" s="4">
         <v>0.63670704078075901</v>
       </c>
-      <c r="E15" s="4"/>
+      <c r="E15" s="12">
+        <v>0.554165214360404</v>
+      </c>
       <c r="F15" s="4">
         <v>0.55810386894388198</v>
       </c>
@@ -1287,19 +1310,19 @@
       </c>
       <c r="K15" s="6">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L15" s="6">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M15" s="6">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="N15" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
+      <c r="N15" s="6">
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="O15" s="6">
         <f t="shared" si="3"/>
@@ -1331,7 +1354,9 @@
       <c r="D16" s="4">
         <v>0.65450505402579195</v>
       </c>
-      <c r="E16" s="4"/>
+      <c r="E16" s="12">
+        <v>0.55414342976646902</v>
+      </c>
       <c r="F16" s="4">
         <v>0.55813872429417899</v>
       </c>
@@ -1348,15 +1373,15 @@
       </c>
       <c r="L16" s="6">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M16" s="6">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="N16" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
+      <c r="N16" s="6">
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="O16" s="6">
         <f t="shared" si="3"/>
@@ -1388,7 +1413,9 @@
       <c r="D17" s="4">
         <v>0.641334088532589</v>
       </c>
-      <c r="E17" s="4"/>
+      <c r="E17" s="12">
+        <v>0.55415214360404297</v>
+      </c>
       <c r="F17" s="4">
         <v>0.56141948414081499</v>
       </c>
@@ -1401,19 +1428,19 @@
       </c>
       <c r="K17" s="6">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L17" s="6">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M17" s="6">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="N17" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
+      <c r="N17" s="6">
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="O17" s="6">
         <f t="shared" si="3"/>
@@ -1445,7 +1472,9 @@
       <c r="D18" s="4">
         <v>0.63408853258975195</v>
       </c>
-      <c r="E18" s="4"/>
+      <c r="E18" s="12">
+        <v>0.55418264203555201</v>
+      </c>
       <c r="F18" s="4">
         <v>0.55555942837225503</v>
       </c>
@@ -1458,19 +1487,19 @@
       </c>
       <c r="K18" s="6">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L18" s="6">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M18" s="6">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="N18" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
+      <c r="N18" s="6">
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="O18" s="6">
         <f t="shared" si="3"/>
@@ -1502,7 +1531,9 @@
       <c r="D19" s="4">
         <v>0.63934297664691497</v>
       </c>
-      <c r="E19" s="4"/>
+      <c r="E19" s="12">
+        <v>0.55415650052283005</v>
+      </c>
       <c r="F19" s="4">
         <v>0.56012547926106604</v>
       </c>
@@ -1515,19 +1546,19 @@
       </c>
       <c r="K19" s="6">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L19" s="6">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M19" s="6">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="N19" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
+      <c r="N19" s="6">
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="O19" s="6">
         <f t="shared" si="3"/>
@@ -1559,7 +1590,9 @@
       <c r="D20" s="4">
         <v>0.64132973161380202</v>
       </c>
-      <c r="E20" s="4"/>
+      <c r="E20" s="12">
+        <v>0.55416085744161703</v>
+      </c>
       <c r="F20" s="4">
         <v>0.56209916347159194</v>
       </c>
@@ -1572,19 +1605,19 @@
       </c>
       <c r="K20" s="6">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L20" s="6">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M20" s="6">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="N20" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
+      <c r="N20" s="6">
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="O20" s="6">
         <f t="shared" si="3"/>
@@ -1616,7 +1649,9 @@
       <c r="D21" s="4">
         <v>0.64856221680027804</v>
       </c>
-      <c r="E21" s="4"/>
+      <c r="E21" s="12">
+        <v>0.55419135587312596</v>
+      </c>
       <c r="F21" s="4">
         <v>0.56478738236319204</v>
       </c>
@@ -1629,19 +1664,19 @@
       </c>
       <c r="K21" s="6">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L21" s="6">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M21" s="6">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="N21" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
+      <c r="N21" s="6">
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="O21" s="6">
         <f t="shared" si="3"/>
@@ -1673,7 +1708,9 @@
       <c r="D22" s="4">
         <v>0.63273353084698503</v>
       </c>
-      <c r="E22" s="4"/>
+      <c r="E22" s="12">
+        <v>0.554221854304635</v>
+      </c>
       <c r="F22" s="4">
         <v>0.56671749738584798</v>
       </c>
@@ -1686,19 +1723,19 @@
       </c>
       <c r="K22" s="6">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L22" s="6">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M22" s="6">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="N22" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
+      <c r="N22" s="6">
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="O22" s="6">
         <f t="shared" si="3"/>
@@ -1730,7 +1767,9 @@
       <c r="D23" s="4">
         <v>0.64199634018821805</v>
       </c>
-      <c r="E23" s="4"/>
+      <c r="E23" s="12">
+        <v>0.55418699895433898</v>
+      </c>
       <c r="F23" s="4">
         <v>0.55417828511676503</v>
       </c>
@@ -1747,19 +1786,19 @@
       </c>
       <c r="L23" s="6">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M23" s="6">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="N23" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
+      <c r="N23" s="6">
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="O23" s="6">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P23" s="6" t="e">
         <f t="shared" si="4"/>
@@ -1787,7 +1826,9 @@
       <c r="D24" s="4">
         <v>0.64072411990240496</v>
       </c>
-      <c r="E24" s="4"/>
+      <c r="E24" s="12">
+        <v>0.55418699895433898</v>
+      </c>
       <c r="F24" s="4">
         <v>0.55939351690484496</v>
       </c>
@@ -1800,19 +1841,19 @@
       </c>
       <c r="K24" s="6">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L24" s="6">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M24" s="6">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="N24" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
+      <c r="N24" s="6">
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="O24" s="6">
         <f t="shared" si="3"/>
@@ -1844,7 +1885,9 @@
       <c r="D25" s="4">
         <v>0.63682467758800898</v>
       </c>
-      <c r="E25" s="4"/>
+      <c r="E25" s="12">
+        <v>0.55418699895433898</v>
+      </c>
       <c r="F25" s="4">
         <v>0.54887591495294497</v>
       </c>
@@ -1857,23 +1900,23 @@
       </c>
       <c r="K25" s="6">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L25" s="6">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M25" s="6">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="N25" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
+      <c r="N25" s="6">
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="O25" s="6">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P25" s="6" t="e">
         <f t="shared" si="4"/>
@@ -1901,7 +1944,9 @@
       <c r="D26" s="4">
         <v>0.63805768560473997</v>
       </c>
-      <c r="E26" s="4"/>
+      <c r="E26" s="12">
+        <v>0.55411293133495998</v>
+      </c>
       <c r="F26" s="4">
         <v>0.56145869640989898</v>
       </c>
@@ -1914,19 +1959,19 @@
       </c>
       <c r="K26" s="6">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L26" s="6">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M26" s="6">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="N26" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
+      <c r="N26" s="6">
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="O26" s="6">
         <f t="shared" si="3"/>
@@ -1958,7 +2003,9 @@
       <c r="D27" s="4">
         <v>0.64925932380620399</v>
       </c>
-      <c r="E27" s="4"/>
+      <c r="E27" s="12">
+        <v>0.55415214360404297</v>
+      </c>
       <c r="F27" s="4">
         <v>0.55152056465667398</v>
       </c>
@@ -1975,19 +2022,19 @@
       </c>
       <c r="L27" s="6">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M27" s="6">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="N27" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
+      <c r="N27" s="6">
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="O27" s="6">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P27" s="6" t="e">
         <f t="shared" si="4"/>
@@ -2015,7 +2062,9 @@
       <c r="D28" s="4">
         <v>0.642079121645172</v>
       </c>
-      <c r="E28" s="4"/>
+      <c r="E28" s="12">
+        <v>0.55416085744161703</v>
+      </c>
       <c r="F28" s="4">
         <v>0.55883147438131697</v>
       </c>
@@ -2032,15 +2081,15 @@
       </c>
       <c r="L28" s="6">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M28" s="6">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="N28" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
+      <c r="N28" s="6">
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="O28" s="6">
         <f t="shared" si="3"/>
@@ -2072,7 +2121,9 @@
       <c r="D29" s="4">
         <v>0.63409288950853904</v>
       </c>
-      <c r="E29" s="4"/>
+      <c r="E29" s="12">
+        <v>0.55407807598466297</v>
+      </c>
       <c r="F29" s="4">
         <v>0.55084524224468401</v>
       </c>
@@ -2085,23 +2136,23 @@
       </c>
       <c r="K29" s="6">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L29" s="6">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M29" s="6">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="N29" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
+      <c r="N29" s="6">
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="O29" s="6">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P29" s="6" t="e">
         <f t="shared" si="4"/>
@@ -2129,7 +2180,9 @@
       <c r="D30" s="4">
         <v>0.63668089926803695</v>
       </c>
-      <c r="E30" s="4"/>
+      <c r="E30" s="12">
+        <v>0.55418699895433898</v>
+      </c>
       <c r="F30" s="4">
         <v>0.56006448239804796</v>
       </c>
@@ -2142,19 +2195,19 @@
       </c>
       <c r="K30" s="6">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L30" s="6">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M30" s="6">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="N30" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
+      <c r="N30" s="6">
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="O30" s="6">
         <f t="shared" si="3"/>
@@ -2186,7 +2239,9 @@
       <c r="D31" s="4">
         <v>0.63146131056117105</v>
       </c>
-      <c r="E31" s="4"/>
+      <c r="E31" s="12">
+        <v>0.55410857441617201</v>
+      </c>
       <c r="F31" s="4">
         <v>0.54959044963401804</v>
       </c>
@@ -2203,19 +2258,19 @@
       </c>
       <c r="L31" s="6">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M31" s="6">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="N31" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
+      <c r="N31" s="6">
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="O31" s="6">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P31" s="6" t="e">
         <f t="shared" si="4"/>
@@ -2243,7 +2298,9 @@
       <c r="D32" s="4">
         <v>0.64663210177762198</v>
       </c>
-      <c r="E32" s="4"/>
+      <c r="E32" s="12">
+        <v>0.55413907284768205</v>
+      </c>
       <c r="F32" s="4">
         <v>0.55877919135587295</v>
       </c>
@@ -2256,7 +2313,7 @@
       </c>
       <c r="K32" s="6">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L32" s="6">
         <f t="shared" si="1"/>
@@ -2266,9 +2323,9 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="N32" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
+      <c r="N32" s="6">
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="O32" s="6">
         <f t="shared" si="3"/>
@@ -2300,7 +2357,9 @@
       <c r="D33" s="4">
         <v>0.64402666434297595</v>
       </c>
-      <c r="E33" s="4"/>
+      <c r="E33" s="12">
+        <v>0.55414778668525599</v>
+      </c>
       <c r="F33" s="4">
         <v>0.55614761240850397</v>
       </c>
@@ -2313,19 +2372,19 @@
       </c>
       <c r="K33" s="6">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L33" s="6">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M33" s="6">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="N33" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
+      <c r="N33" s="6">
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="O33" s="6">
         <f t="shared" si="3"/>
@@ -2357,7 +2416,9 @@
       <c r="D34" s="4">
         <v>0.64204862321366296</v>
       </c>
-      <c r="E34" s="4"/>
+      <c r="E34" s="12">
+        <v>0.55415214360404297</v>
+      </c>
       <c r="F34" s="4">
         <v>0.54946409898919402</v>
       </c>
@@ -2370,23 +2431,23 @@
       </c>
       <c r="K34" s="6">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L34" s="6">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M34" s="6">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="N34" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
+      <c r="N34" s="6">
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="O34" s="6">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P34" s="6" t="e">
         <f t="shared" si="4"/>
@@ -2414,7 +2475,9 @@
       <c r="D35" s="4">
         <v>0.64669745555942804</v>
       </c>
-      <c r="E35" s="4"/>
+      <c r="E35" s="12">
+        <v>0.55414342976646902</v>
+      </c>
       <c r="F35" s="4">
         <v>0.55614325548971699</v>
       </c>
@@ -2427,19 +2490,19 @@
       </c>
       <c r="K35" s="6">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L35" s="6">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M35" s="6">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="N35" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
+      <c r="N35" s="6">
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="O35" s="6">
         <f t="shared" si="3"/>
@@ -2474,18 +2537,15 @@
         <f t="shared" si="8"/>
         <v>0.64031616707331196</v>
       </c>
-      <c r="E36" s="8" t="e">
+      <c r="E36" s="8">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>0.55415867898222337</v>
       </c>
       <c r="F36" s="8">
         <f t="shared" si="8"/>
         <v>0.55740269548042221</v>
       </c>
-      <c r="G36" s="8" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="G36" s="8"/>
       <c r="H36" s="8">
         <f t="shared" si="8"/>
         <v>0.62756883931683483</v>
@@ -2496,23 +2556,23 @@
       </c>
       <c r="K36" s="9">
         <f t="shared" ref="K36:R36" si="9">AVERAGE(K6:K35)</f>
-        <v>5</v>
+        <v>5.7666666666666666</v>
       </c>
       <c r="L36" s="9">
         <f t="shared" si="9"/>
-        <v>5.7333333333333334</v>
+        <v>6.7</v>
       </c>
       <c r="M36" s="9">
         <f t="shared" si="9"/>
         <v>1.0666666666666667</v>
       </c>
-      <c r="N36" s="9" t="e">
+      <c r="N36" s="9">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
+        <v>4.9666666666666668</v>
       </c>
       <c r="O36" s="9">
         <f t="shared" si="9"/>
-        <v>4.2666666666666666</v>
+        <v>4.5666666666666664</v>
       </c>
       <c r="P36" s="9" t="e">
         <f t="shared" si="9"/>
@@ -2536,22 +2596,22 @@
         <v>36</v>
       </c>
       <c r="D37" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E37" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E37" s="10" t="s">
+      <c r="F37" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F37" s="10" t="s">
+      <c r="G37" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="G37" s="10" t="s">
-        <v>39</v>
-      </c>
       <c r="H37" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I37" s="10" t="s">
         <v>41</v>
-      </c>
-      <c r="I37" s="10" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
